--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\xlink\IdeaProjects\matrix-02-zhou-chen-schaller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA0189B-850B-4C08-90FC-10B9146472EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B0A92F-E21A-435A-871E-A2B23DE07601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8E9CA62-7C14-4DB4-A832-BAF59B5A9F77}"/>
   </bookViews>
@@ -84,7 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -184,22 +185,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.96245599999999998</c:v>
+                  <c:v>1.0690489999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.037963</c:v>
+                  <c:v>13.568381</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.761006000000002</c:v>
+                  <c:v>58.375348000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.893754</c:v>
+                  <c:v>150.49076700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>333.25800900000002</c:v>
+                  <c:v>343.89219300000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>357.80630200000002</c:v>
+                  <c:v>566.01718400000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,7 +1541,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,11 +1553,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1577,7 +1578,7 @@
         <v>500</v>
       </c>
       <c r="B3">
-        <v>0.96245599999999998</v>
+        <v>1.0690489999999999</v>
       </c>
       <c r="C3">
         <v>0.79527700000000001</v>
@@ -1590,8 +1591,8 @@
       <c r="A4">
         <v>1000</v>
       </c>
-      <c r="B4">
-        <v>14.037963</v>
+      <c r="B4" s="1">
+        <v>13.568381</v>
       </c>
       <c r="C4">
         <v>6.3887130000000001</v>
@@ -1604,8 +1605,8 @@
       <c r="A5">
         <v>1500</v>
       </c>
-      <c r="B5">
-        <v>63.761006000000002</v>
+      <c r="B5" s="1">
+        <v>58.375348000000002</v>
       </c>
       <c r="C5">
         <v>21.617021999999999</v>
@@ -1618,8 +1619,8 @@
       <c r="A6">
         <v>2000</v>
       </c>
-      <c r="B6">
-        <v>152.893754</v>
+      <c r="B6" s="1">
+        <v>150.49076700000001</v>
       </c>
       <c r="C6">
         <v>49.217917</v>
@@ -1632,8 +1633,8 @@
       <c r="A7">
         <v>2500</v>
       </c>
-      <c r="B7">
-        <v>333.25800900000002</v>
+      <c r="B7" s="1">
+        <v>343.89219300000002</v>
       </c>
       <c r="C7">
         <v>89.533102</v>
@@ -1646,8 +1647,8 @@
       <c r="A8">
         <v>3000</v>
       </c>
-      <c r="B8">
-        <v>357.80630200000002</v>
+      <c r="B8" s="1">
+        <v>566.01718400000004</v>
       </c>
       <c r="C8">
         <v>151.83305799999999</v>
